--- a/Planilhas/MRV/DFs-MRV-Limpo.xlsx
+++ b/Planilhas/MRV/DFs-MRV-Limpo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\INSPER\Engenharia\7-Semestre\Financas-I\APS\Analise-MRV\Planilhas\MRV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC483A-DD8D-4312-A66B-8D3B64331840}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0250B958-0FC0-4D20-9EF3-CC2FE4E00566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="8994" activeTab="1" xr2:uid="{4AED71FF-91D9-491B-A893-2F3A98F1C88C}"/>
   </bookViews>
   <sheets>
     <sheet name="BP" sheetId="1" r:id="rId1"/>
@@ -982,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2EB8EF-9E07-481F-986E-67E9360D3EB6}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -3454,7 +3454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD49F306-CAF3-4637-A099-D438AE3577F0}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4085,7 +4087,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4889,23 +4891,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18">
-        <f>B13/B10</f>
-        <v>1.2080709603563622</v>
-      </c>
-      <c r="D18">
-        <f>D13/D10</f>
-        <v>1.1841533501541912</v>
-      </c>
-      <c r="F18">
-        <f>F13/F10</f>
-        <v>1.1852955948349886</v>
-      </c>
-      <c r="H18">
-        <f>H13/H10</f>
-        <v>1.0658675839071925</v>
-      </c>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K18" s="3" t="s">
         <v>100</v>
       </c>
@@ -4922,7 +4908,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K19" s="9" t="s">
         <v>20</v>
       </c>
@@ -4943,7 +4929,7 @@
         <v>1.0975337044864344</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K20" s="9" t="s">
         <v>21</v>
       </c>
@@ -4964,11 +4950,7 @@
         <v>1.132567216215671</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21">
-        <f>AVERAGE(B18,D18,F18)</f>
-        <v>1.1925066351151807</v>
-      </c>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K21" s="7" t="s">
         <v>22</v>
       </c>
@@ -4989,7 +4971,7 @@
         <v>1.0174084429672789</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K22" s="9" t="s">
         <v>23</v>
       </c>
@@ -5010,7 +4992,7 @@
         <v>1.0962580117922776</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K23" s="9" t="s">
         <v>24</v>
       </c>
@@ -5031,7 +5013,7 @@
         <v>1.2324127890444614</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K24" s="9" t="s">
         <v>25</v>
       </c>
@@ -5052,7 +5034,7 @@
         <v>2.1134933632132391</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K25" s="9" t="s">
         <v>26</v>
       </c>
@@ -5073,7 +5055,7 @@
         <v>0.97928171564060029</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K26" s="9" t="s">
         <v>27</v>
       </c>
@@ -5094,7 +5076,7 @@
         <v>0.64862201992728485</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K27" s="7" t="s">
         <v>30</v>
       </c>
@@ -5115,7 +5097,7 @@
         <v>0.96362647095356146</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K28" s="9" t="s">
         <v>28</v>
       </c>
@@ -5136,7 +5118,7 @@
         <v>0.79616406381965876</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K29" s="9" t="s">
         <v>29</v>
       </c>
@@ -5157,7 +5139,7 @@
         <v>1.8673583509695626</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
@@ -5178,7 +5160,7 @@
         <v>0.86653339712046651</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" s="9" t="s">
         <v>32</v>
       </c>
@@ -5199,7 +5181,7 @@
         <v>1.0746747254775306</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K32" s="5" t="s">
         <v>34</v>
       </c>
